--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81ECF70-4BA5-4D34-8B4F-7E4385954EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB1819-58A1-4DB3-BB3F-AB21631DE3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="380" windowWidth="19030" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="198">
   <si>
     <t>Num</t>
   </si>
@@ -826,6 +826,10 @@
     <t>Chaines de caractères, listes</t>
   </si>
   <si>
+    <t>TP_02_Stuctures_Algorithmiques
+https://capytale2.ac-paris.fr/web/c/062b-628078/mcer</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Activité sur les fonctions Heures, Minutes, Secondes etc…
 </t>
@@ -849,7 +853,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/ea94-1762308
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/bc68-3809084
 </t>
     </r>
     <r>
@@ -898,19 +902,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/67cf-1762303</t>
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/5e57-3807362
+Activité séquencée.</t>
     </r>
   </si>
   <si>
-    <t>TP_02_Stuctures_Algorithmiques
-https://capytale2.ac-paris.fr/web/c/062b-628078/mcer</t>
+    <t>TP1
+TP 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1710,19 +1715,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,170 +1748,152 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,14 +2214,14 @@
   </sheetPr>
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" customWidth="1"/>
@@ -2246,7 +2239,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38" customHeight="1">
+    <row r="2" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2307,27 +2300,27 @@
       <c r="E2" s="56">
         <v>0</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="K2" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="118"/>
+      <c r="L2" s="59"/>
       <c r="O2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>169</v>
@@ -2336,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2355,19 +2348,19 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="116"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2375,16 +2368,16 @@
         <v>101</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2403,36 +2396,36 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="113" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="113" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="H4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="116"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2451,19 +2444,19 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="116"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2471,16 +2464,16 @@
         <v>102</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2499,36 +2492,36 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="116"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2547,14 +2540,14 @@
 au
 13/10/24</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="116"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2562,16 +2555,13 @@
         <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="31.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2593,35 +2583,32 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="115" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>106</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2639,18 +2626,18 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2666,16 +2653,16 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="88"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2694,7 +2681,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="90" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2723,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2742,22 +2729,22 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="79"/>
+      <c r="J12" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2771,7 +2758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2790,16 +2777,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="74" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2816,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2835,23 +2822,23 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="87">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="79"/>
+      <c r="J14" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2865,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2884,16 +2871,16 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="74" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2910,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2929,20 +2916,20 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="87">
         <v>7</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
+      <c r="I16" s="79"/>
+      <c r="J16" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69" t="s">
+      <c r="K16" s="79"/>
+      <c r="L16" s="82" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2958,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2977,16 +2964,16 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="79"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="72"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -3003,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3019,20 +3006,20 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3048,17 +3035,17 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3077,24 +3064,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="64">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="57"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -3111,7 +3098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3130,16 +3117,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="58"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -3153,7 +3140,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3172,25 +3159,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="64">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3207,7 +3194,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3226,16 +3213,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="68" t="s">
+      <c r="E23" s="65"/>
+      <c r="F23" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="58"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3247,7 +3234,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3266,25 +3253,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="64">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="57" t="s">
+      <c r="K24" s="60"/>
+      <c r="L24" s="62" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3295,7 +3282,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3311,16 +3298,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="58"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3335,7 +3322,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3351,20 +3338,20 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3383,18 +3370,18 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3413,27 +3400,27 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="64">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="66"/>
-      <c r="L28" s="57"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3445,7 +3432,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3464,14 +3451,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="58"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3480,7 +3467,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3499,26 +3486,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="64">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3531,7 +3518,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3550,13 +3537,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3566,7 +3553,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3585,26 +3572,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="64">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3616,7 +3603,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34">
+    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3634,13 +3621,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3655,7 +3642,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3671,20 +3658,20 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="94"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3700,18 +3687,18 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3727,22 +3714,22 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="64">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66" t="s">
+      <c r="G36" s="60"/>
+      <c r="H36" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66" t="s">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3758,7 +3745,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3774,13 +3761,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3796,7 +3783,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3812,26 +3799,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="64">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="66" t="s">
+      <c r="J38" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="66"/>
+      <c r="K38" s="60"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3845,7 +3832,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3861,13 +3848,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3881,7 +3868,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3897,27 +3884,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="64">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I40" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="66" t="s">
+      <c r="J40" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="66"/>
-      <c r="L40" s="57"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="62"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -3927,7 +3914,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3943,14 +3930,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="58"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -3963,7 +3950,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3979,22 +3966,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="64">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66" t="s">
+      <c r="G42" s="60"/>
+      <c r="H42" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="60"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4010,7 +3997,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4026,13 +4013,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -4040,7 +4027,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4056,16 +4043,16 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5">
+      <c r="E44" s="64"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="62"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -4081,170 +4068,264 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="65">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="58"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="118">
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="E3:E4"/>
@@ -4269,96 +4350,6 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4380,7 +4371,7 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -4398,7 +4389,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4438,7 +4429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4456,28 +4447,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="100">
         <v>1</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="90"/>
+      <c r="L2" s="99"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4488,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4507,14 +4498,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4531,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4550,27 +4541,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="87">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4584,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4603,14 +4594,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="69"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4627,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4646,27 +4637,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="87">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4680,7 +4671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4699,14 +4690,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="69"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4723,7 +4714,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4773,7 +4764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4791,18 +4782,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4818,16 +4809,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="88"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4846,7 +4837,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="90" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4875,7 +4866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4894,22 +4885,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="79"/>
+      <c r="J12" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -4923,7 +4914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4942,16 +4933,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="74" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -4968,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4987,23 +4978,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="87">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="79"/>
+      <c r="J14" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5017,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5036,16 +5027,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="74" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5062,7 +5053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5081,20 +5072,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="87">
         <v>7</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
+      <c r="I16" s="79"/>
+      <c r="J16" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69" t="s">
+      <c r="K16" s="79"/>
+      <c r="L16" s="82" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5110,7 +5101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5129,16 +5120,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="79"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="72"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5155,7 +5146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -5171,20 +5162,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -5200,17 +5191,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -5229,24 +5220,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="64">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="57"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5263,7 +5254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -5282,16 +5273,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="58"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5305,7 +5296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -5324,25 +5315,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="64">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5359,7 +5350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -5378,16 +5369,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="68" t="s">
+      <c r="E23" s="65"/>
+      <c r="F23" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="58"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5399,7 +5390,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -5418,25 +5409,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="64">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="57" t="s">
+      <c r="K24" s="60"/>
+      <c r="L24" s="62" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5447,7 +5438,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -5463,16 +5454,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="58"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5487,7 +5478,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -5503,20 +5494,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5535,18 +5526,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5565,27 +5556,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="64">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="66"/>
-      <c r="L28" s="57"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5597,7 +5588,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5616,14 +5607,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="58"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5632,7 +5623,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5651,26 +5642,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="64">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5683,7 +5674,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5702,13 +5693,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5718,7 +5709,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5737,26 +5728,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="64">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5768,7 +5759,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34">
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5786,13 +5777,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5807,7 +5798,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5823,20 +5814,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="94"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5852,18 +5843,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5879,22 +5870,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="64">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66" t="s">
+      <c r="G36" s="60"/>
+      <c r="H36" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66" t="s">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -5910,7 +5901,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5926,13 +5917,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5948,7 +5939,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5964,26 +5955,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="64">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="66" t="s">
+      <c r="J38" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="66"/>
+      <c r="K38" s="60"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -5997,7 +5988,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6013,13 +6004,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6033,7 +6024,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6049,27 +6040,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="64">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I40" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="66" t="s">
+      <c r="J40" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="66"/>
-      <c r="L40" s="57"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="62"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6079,7 +6070,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6095,14 +6086,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="58"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6115,7 +6106,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6131,22 +6122,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="64">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66" t="s">
+      <c r="G42" s="60"/>
+      <c r="H42" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="60"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6162,7 +6153,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6178,13 +6169,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6192,7 +6183,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6208,16 +6199,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5">
+      <c r="E44" s="64"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="62"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -6233,179 +6224,271 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="65">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="58"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
@@ -6430,107 +6513,15 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6552,7 +6543,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -6569,7 +6560,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6600,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -6618,17 +6609,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1">
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -6647,25 +6638,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="64">
         <v>1</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6684,17 +6675,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6713,26 +6704,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="64">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6751,17 +6742,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6780,30 +6771,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="64">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="66"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6822,19 +6813,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6871,7 +6862,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6887,19 +6878,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6915,17 +6906,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5">
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6965,7 +6956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -6984,26 +6975,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7022,17 +7013,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7051,24 +7042,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7087,19 +7078,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7137,7 +7128,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -7153,19 +7144,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5">
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -7181,17 +7172,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="83"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -7228,7 +7219,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -7247,26 +7238,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="64">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -7285,20 +7276,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="98" t="s">
+      <c r="N22" s="113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -7317,25 +7308,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="64">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="98"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5">
+      <c r="N23" s="113"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -7354,17 +7345,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -7380,19 +7371,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5">
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -7408,17 +7399,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="83"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -7437,26 +7428,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="64">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="66"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -7475,17 +7466,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="67"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -7504,24 +7495,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="64">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="66"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -7540,17 +7531,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="67"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -7569,25 +7560,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="64">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="66"/>
+      <c r="K31" s="60"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -7606,17 +7597,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="67"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -7650,7 +7641,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -7666,19 +7657,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="110"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5">
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -7694,17 +7685,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5">
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7738,7 +7729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7754,24 +7745,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="64">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66" t="s">
+      <c r="G37" s="60"/>
+      <c r="H37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="66"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="66"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7787,17 +7778,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="67"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7813,15 +7804,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="64">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="103"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="111"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -7832,7 +7823,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7848,17 +7839,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="104"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7874,24 +7865,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="64">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66" t="s">
+      <c r="G41" s="60"/>
+      <c r="H41" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="66"/>
+      <c r="I41" s="60"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="66"/>
+      <c r="K41" s="60"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7907,19 +7898,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="67"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7935,22 +7926,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="107">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="68"/>
+      <c r="K43" s="79"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7966,17 +7957,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="68"/>
+      <c r="K44" s="79"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -7996,167 +7987,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -8173,86 +8244,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8273,7 +8264,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -8288,7 +8279,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8318,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -8336,16 +8327,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5">
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -8364,24 +8355,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="107">
         <v>1</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8400,16 +8391,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8428,25 +8419,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="107">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8465,16 +8456,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8493,27 +8484,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="107">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8532,18 +8523,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8579,7 +8570,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -8595,18 +8586,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -8622,16 +8613,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-    </row>
-    <row r="12" spans="1:12" ht="39">
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -8663,7 +8654,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="60" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8672,7 +8663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -8691,11 +8682,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="64">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8704,12 +8695,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8728,22 +8719,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="60" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8762,21 +8753,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="107">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8795,15 +8786,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="60" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -8812,7 +8803,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8838,14 +8829,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -8861,18 +8852,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5">
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -8888,16 +8879,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -8922,20 +8913,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="60" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -8954,23 +8945,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="107">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -8989,25 +8980,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="71"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="60" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="98" t="s">
+      <c r="M22" s="113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -9026,22 +9017,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="107">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="98"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5">
+      <c r="M23" s="113"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -9060,8 +9051,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9075,7 +9066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -9091,18 +9082,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="101"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5">
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="103"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -9118,16 +9109,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -9146,17 +9137,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="107">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="68"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9164,7 +9155,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -9183,16 +9174,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -9211,23 +9202,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="102">
+      <c r="E29" s="107">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -9246,16 +9237,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -9274,15 +9265,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="102">
+      <c r="E31" s="107">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9291,7 +9282,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -9310,16 +9301,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -9352,7 +9343,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -9368,18 +9359,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="110"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5">
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="109"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -9395,16 +9386,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5">
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -9437,7 +9428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -9453,15 +9444,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="102">
+      <c r="E37" s="107">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68" t="s">
+      <c r="G37" s="79"/>
+      <c r="H37" s="79" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9469,7 +9460,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -9485,16 +9476,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -9510,15 +9501,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="102">
+      <c r="E39" s="107">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="111"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9528,7 +9519,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -9544,16 +9535,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="111"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="114"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -9569,15 +9560,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="102">
+      <c r="E41" s="107">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68" t="s">
+      <c r="G41" s="79"/>
+      <c r="H41" s="79" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9585,7 +9576,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -9601,10 +9592,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="95"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9612,7 +9603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -9628,13 +9619,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="107">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9642,7 +9633,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -9658,16 +9649,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -9687,182 +9678,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -9879,45 +9893,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB1819-58A1-4DB3-BB3F-AB21631DE3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E28CC0-9E01-41E5-8732-A7F647356DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="203">
   <si>
     <t>Num</t>
   </si>
@@ -826,12 +826,46 @@
     <t>Chaines de caractères, listes</t>
   </si>
   <si>
-    <t>TP_02_Stuctures_Algorithmiques
+    <r>
+      <t xml:space="preserve">TP_01_Decouverte des fonctions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sujet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/5e57-3807362
+Activité séquencée.</t>
+    </r>
+  </si>
+  <si>
+    <t>TP1
+TP 1</t>
+  </si>
+  <si>
+    <t>TP_02_Stuctures_Algorithmiques (Triangles, grain de riz..)
+TODO : donner les résultats intermédiaires sur les grain de riz. 
 https://capytale2.ac-paris.fr/web/c/062b-628078/mcer</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Activité sur les fonctions Heures, Minutes, Secondes etc…
+      <t xml:space="preserve">ACTIVITE 1
+Activité sur les fonctions Heures, Minutes, Secondes etc…
 </t>
     </r>
     <r>
@@ -879,36 +913,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TP_01_Decouverte des fonctions
+    <t>Activité 4 - DM
+CODAGE DE CESAR</t>
+  </si>
+  <si>
+    <t>DS 1 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 3 : 
+Récupérer l'activité sur les chaines de caracteres. + ADAPTER
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sujet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/5e57-3807362
-Activité séquencée.</t>
-    </r>
-  </si>
-  <si>
-    <t>TP1
-TP 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité de découverte sur les listes
+TO DO : ajouter une réflexion sur le choix boucl for / while.
+</t>
+  </si>
+  <si>
+    <t>ACTIVITE 2 &gt;&gt; 6 QUESTIONS STR, WHILE/FOR
+Activités sur les chaînes de caractères
+Simplifier l'activité. 
+Trouver les initiales etc….</t>
   </si>
 </sst>
 </file>
@@ -1724,22 +1749,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,6 +1836,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1766,75 +1860,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1847,6 +1878,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,6 +1890,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,35 +1911,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,10 +2240,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -2228,7 +2253,8 @@
     <col min="3" max="3" width="14.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
     <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
     <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
@@ -2303,17 +2329,17 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="115" t="s">
-        <v>195</v>
+      <c r="J2" s="69" t="s">
+        <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
         <v>168</v>
@@ -2348,17 +2374,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="79">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="116"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -2368,7 +2394,7 @@
         <v>101</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>171</v>
@@ -2377,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2396,17 +2422,17 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>168</v>
@@ -2444,17 +2470,23 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="79">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="81" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="H5" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>201</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="23"/>
       <c r="M5" s="2" t="s">
@@ -2492,20 +2524,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -2543,7 +2569,9 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="81" t="s">
+        <v>175</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -2584,15 +2612,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="26" t="s">
-        <v>175</v>
-      </c>
+      <c r="H8" s="67"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10" t="s">
@@ -2626,16 +2652,16 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2653,14 +2679,14 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2681,7 +2707,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="66" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2729,22 +2755,22 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="60">
         <v>5</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="79" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79" t="s">
+      <c r="I12" s="68"/>
+      <c r="J12" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2777,16 +2803,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="82"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2822,23 +2848,23 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="60">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="79" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79" t="s">
+      <c r="I14" s="68"/>
+      <c r="J14" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2871,16 +2897,16 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2916,20 +2942,20 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="60">
         <v>7</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79" t="s">
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79" t="s">
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="82" t="s">
+      <c r="K16" s="68"/>
+      <c r="L16" s="71" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2964,16 +2990,16 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -3006,16 +3032,16 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -3035,14 +3061,14 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3064,24 +3090,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="79">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60" t="s">
+      <c r="I20" s="81"/>
+      <c r="J20" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -3117,16 +3143,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="79" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="63"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -3159,25 +3185,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="79">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="60" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="62"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3213,16 +3239,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="79" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="63"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3253,25 +3279,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="79">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="60" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="62" t="s">
+      <c r="K24" s="81"/>
+      <c r="L24" s="82" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3298,16 +3324,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="63"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3338,16 +3364,16 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -3370,14 +3396,14 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -3400,27 +3426,27 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="79">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="62"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3451,14 +3477,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="63"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3486,26 +3512,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="79">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="60" t="s">
+      <c r="J30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="60"/>
+      <c r="K30" s="81"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3537,13 +3563,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3572,26 +3598,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="79">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="74" t="s">
+      <c r="I32" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="60"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3621,13 +3647,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3658,16 +3684,16 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3687,14 +3713,14 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3714,22 +3740,22 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="79">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60" t="s">
+      <c r="G36" s="81"/>
+      <c r="H36" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60" t="s">
+      <c r="I36" s="81"/>
+      <c r="J36" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="81"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3761,13 +3787,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3799,26 +3825,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="79">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="60"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3848,13 +3874,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3884,27 +3910,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="79">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="60" t="s">
+      <c r="J40" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="60"/>
-      <c r="L40" s="62"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -3930,14 +3956,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="63"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="83"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -3966,22 +3992,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="79">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60" t="s">
+      <c r="G42" s="81"/>
+      <c r="H42" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60" t="s">
+      <c r="I42" s="81"/>
+      <c r="J42" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="60"/>
+      <c r="K42" s="81"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4013,13 +4039,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -4043,14 +4069,14 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="62"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="82"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -4068,17 +4094,17 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="80">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="63"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -4231,101 +4257,11 @@
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
+  <mergeCells count="122">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="E3:E4"/>
@@ -4350,6 +4286,100 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4447,28 +4477,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="102">
         <v>1</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="99"/>
+      <c r="L2" s="101"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4498,14 +4528,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="82"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4541,27 +4571,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="60">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="82"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4594,14 +4624,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="82"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4637,27 +4667,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="60">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="82"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4690,14 +4720,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="82"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4782,16 +4812,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -4809,14 +4839,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -4837,7 +4867,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="66" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4885,22 +4915,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="60">
         <v>5</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="79" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79" t="s">
+      <c r="I12" s="68"/>
+      <c r="J12" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -4933,16 +4963,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="82"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -4978,23 +5008,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="60">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="79" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79" t="s">
+      <c r="I14" s="68"/>
+      <c r="J14" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5027,16 +5057,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5072,20 +5102,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="60">
         <v>7</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79" t="s">
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79" t="s">
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="82" t="s">
+      <c r="K16" s="68"/>
+      <c r="L16" s="71" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5120,16 +5150,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5162,16 +5192,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -5191,14 +5221,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5220,24 +5250,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="79">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60" t="s">
+      <c r="I20" s="81"/>
+      <c r="J20" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5273,16 +5303,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="79" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="63"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5315,25 +5345,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="79">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="60" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="62"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5369,16 +5399,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="79" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="63"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5409,25 +5439,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="79">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="60" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="62" t="s">
+      <c r="K24" s="81"/>
+      <c r="L24" s="82" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5454,16 +5484,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="63"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5494,16 +5524,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -5526,14 +5556,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -5556,27 +5586,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="79">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="62"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5607,14 +5637,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="63"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5642,26 +5672,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="79">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="60" t="s">
+      <c r="J30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="60"/>
+      <c r="K30" s="81"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5693,13 +5723,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5728,26 +5758,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="79">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="74" t="s">
+      <c r="I32" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="60"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5777,13 +5807,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5814,16 +5844,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -5843,14 +5873,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -5870,22 +5900,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="79">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60" t="s">
+      <c r="G36" s="81"/>
+      <c r="H36" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60" t="s">
+      <c r="I36" s="81"/>
+      <c r="J36" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="81"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -5917,13 +5947,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5955,26 +5985,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="79">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="60"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -6004,13 +6034,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6040,27 +6070,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="79">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="60" t="s">
+      <c r="J40" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="60"/>
-      <c r="L40" s="62"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6086,14 +6116,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="63"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="83"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6122,22 +6152,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="79">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60" t="s">
+      <c r="G42" s="81"/>
+      <c r="H42" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60" t="s">
+      <c r="I42" s="81"/>
+      <c r="J42" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="60"/>
+      <c r="K42" s="81"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6169,13 +6199,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6199,14 +6229,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="62"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="82"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -6224,17 +6254,17 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="80">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="63"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -6388,6 +6418,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="E26:L27"/>
@@ -6412,116 +6552,6 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6609,15 +6639,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -6638,21 +6668,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="79">
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -6675,13 +6705,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -6704,22 +6734,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="79">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -6742,13 +6772,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -6771,24 +6801,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="79">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -6813,13 +6843,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -6878,17 +6908,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -6906,15 +6936,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -6975,22 +7005,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="79">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -7013,13 +7043,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -7042,20 +7072,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="79">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -7078,13 +7108,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -7144,17 +7174,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="103"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -7172,15 +7202,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -7238,20 +7268,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="79">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -7276,16 +7306,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="113" t="s">
+      <c r="N22" s="103" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7308,23 +7338,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="79">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="113"/>
+      <c r="N23" s="103"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -7345,13 +7375,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -7371,17 +7401,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="103"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -7399,15 +7429,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -7428,20 +7458,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="79">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="60"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -7466,13 +7496,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="61"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -7495,20 +7525,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="79">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="60"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -7531,13 +7561,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="61"/>
+      <c r="K30" s="67"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -7560,18 +7590,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="79">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="60"/>
+      <c r="K31" s="81"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -7597,13 +7627,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="61"/>
+      <c r="K32" s="67"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -7660,14 +7690,14 @@
       <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="109"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -7685,15 +7715,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="73"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -7745,20 +7775,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="79">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60" t="s">
+      <c r="G37" s="81"/>
+      <c r="H37" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="60"/>
+      <c r="I37" s="81"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="60"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -7778,13 +7808,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="61"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -7804,15 +7834,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="79">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="111"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="108"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -7839,10 +7869,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="112"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="109"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -7865,20 +7895,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="79">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60" t="s">
+      <c r="G41" s="81"/>
+      <c r="H41" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="60"/>
+      <c r="K41" s="81"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -7898,13 +7928,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="61"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -7930,12 +7960,12 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="79"/>
+      <c r="K43" s="68"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -7957,13 +7987,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="79"/>
+      <c r="K44" s="68"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -7988,8 +8018,8 @@
         <v>18</v>
       </c>
       <c r="F45" s="110"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8148,70 +8178,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -8228,22 +8210,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8327,14 +8357,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -8358,16 +8388,16 @@
       <c r="E3" s="107">
         <v>1</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -8391,11 +8421,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -8423,16 +8453,16 @@
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -8456,11 +8486,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -8488,16 +8518,16 @@
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -8523,11 +8553,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -8586,16 +8616,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -8613,14 +8643,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -8654,7 +8684,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="81" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8682,11 +8712,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="79">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="81" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8695,7 +8725,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="61"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -8719,15 +8749,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="80"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="81" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -8757,12 +8787,12 @@
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -8786,15 +8816,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="60" t="s">
+      <c r="E16" s="94"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="81" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -8829,9 +8859,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -8852,16 +8882,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -8879,14 +8909,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -8913,13 +8943,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="81" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -8949,12 +8979,12 @@
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -8980,21 +9010,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="60" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="81" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="113" t="s">
+      <c r="M22" s="103" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9021,16 +9051,16 @@
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="113"/>
+      <c r="M23" s="103"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -9051,8 +9081,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9082,16 +9112,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="103"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="106"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -9109,14 +9139,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -9141,13 +9171,13 @@
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9174,10 +9204,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -9206,13 +9236,13 @@
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="79"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -9237,10 +9267,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -9269,11 +9299,11 @@
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9301,10 +9331,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -9362,13 +9392,13 @@
       <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="109"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -9386,14 +9416,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -9448,11 +9478,11 @@
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9476,10 +9506,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -9505,11 +9535,11 @@
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="114"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="116"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9535,10 +9565,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="114"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="116"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -9564,11 +9594,11 @@
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79" t="s">
+      <c r="G41" s="68"/>
+      <c r="H41" s="68" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9592,10 +9622,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9623,9 +9653,9 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9649,10 +9679,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -9679,8 +9709,8 @@
         <v>18</v>
       </c>
       <c r="F45" s="110"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -9838,6 +9868,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -9854,61 +9939,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E28CC0-9E01-41E5-8732-A7F647356DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B65DAC-43F3-44BA-AEB5-A08DEFF4C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="205">
   <si>
     <t>Num</t>
   </si>
@@ -934,6 +932,12 @@
 Activités sur les chaînes de caractères
 Simplifier l'activité. 
 Trouver les initiales etc….</t>
+  </si>
+  <si>
+    <t>PTSI 1/2 DS</t>
+  </si>
+  <si>
+    <t>PTSI 1 Cours 1</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1749,6 +1753,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1768,12 +1853,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,84 +1867,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1878,43 +1885,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,9 +1945,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1978,7 +1985,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2084,7 +2091,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2226,7 +2233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2240,32 +2247,32 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9:L10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.81640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2329,16 +2336,16 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="94" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
@@ -2355,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2374,17 +2381,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="67">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="70"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -2397,13 +2404,13 @@
         <v>195</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2422,8 +2429,8 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2470,21 +2477,21 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="67">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="61" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="63" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -2505,7 +2512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2524,14 +2531,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -2547,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2569,7 +2576,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="61" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -2589,7 +2596,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2615,7 +2622,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="67"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -2634,7 +2641,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2652,18 +2659,18 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+    </row>
+    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2679,16 +2686,16 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2707,7 +2714,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="93" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2729,14 +2736,14 @@
       <c r="O11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>173</v>
+      <c r="P11" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="Q11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2755,36 +2762,36 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="80"/>
+      <c r="J12" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>171</v>
+      <c r="P12" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="Q12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2803,16 +2810,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="71"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2822,14 +2829,14 @@
       <c r="O13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>173</v>
+      <c r="P13" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2848,37 +2855,37 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="87">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="80"/>
+      <c r="J14" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>171</v>
+      <c r="P14" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="Q14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2897,16 +2904,16 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="66" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="71"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2916,14 +2923,14 @@
       <c r="O15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>173</v>
+      <c r="P15" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2942,20 +2949,20 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="87">
         <v>7</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
+      <c r="I16" s="80"/>
+      <c r="J16" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="71" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2964,14 +2971,14 @@
       <c r="O16" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>171</v>
+      <c r="P16" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2990,16 +2997,16 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="72"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -3009,14 +3016,14 @@
       <c r="O17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>173</v>
+      <c r="P17" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="Q17" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3032,20 +3039,20 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3061,17 +3068,17 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3090,24 +3097,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="67">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="61"/>
+      <c r="J20" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3143,16 +3150,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="83"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -3166,7 +3173,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3185,25 +3192,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="67">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="80"/>
+      <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3239,16 +3246,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="68" t="s">
+      <c r="E23" s="68"/>
+      <c r="F23" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="83"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3260,7 +3267,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3279,25 +3286,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="67">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="80"/>
+      <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="81" t="s">
+      <c r="I24" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="81" t="s">
+      <c r="J24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82" t="s">
+      <c r="K24" s="61"/>
+      <c r="L24" s="65" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3308,7 +3315,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3324,16 +3331,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="83"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3348,7 +3355,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3364,20 +3371,20 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3396,18 +3403,18 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3426,27 +3433,27 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="67">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="81" t="s">
+      <c r="J28" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3458,7 +3465,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3477,14 +3484,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="83"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3493,7 +3500,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3512,26 +3519,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="67">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="81" t="s">
+      <c r="J30" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="81"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3544,7 +3551,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3563,13 +3570,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3579,7 +3586,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3598,26 +3605,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="67">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="81"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3629,7 +3636,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3647,13 +3654,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3675,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3684,20 +3691,20 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3713,18 +3720,18 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3740,22 +3747,22 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="67">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81" t="s">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="81"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3771,7 +3778,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3787,13 +3794,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3809,7 +3816,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3825,26 +3832,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="67">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="81" t="s">
+      <c r="J38" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="81"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3858,7 +3865,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3874,13 +3881,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3894,7 +3901,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3910,27 +3917,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="79">
+      <c r="E40" s="67">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="81" t="s">
+      <c r="I40" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="81" t="s">
+      <c r="J40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="81"/>
-      <c r="L40" s="82"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="65"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -3940,7 +3947,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3956,14 +3963,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="83"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="66"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +3983,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3992,22 +3999,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="79">
+      <c r="E42" s="67">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81" t="s">
+      <c r="I42" s="61"/>
+      <c r="J42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="81"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4023,7 +4030,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4039,13 +4046,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -4053,7 +4060,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4069,16 +4076,16 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="82"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="67"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -4094,170 +4101,268 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E45" s="68">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="83"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="66"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J5:J6"/>
@@ -4282,104 +4387,6 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4401,25 +4408,25 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4477,10 +4484,10 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="103">
         <v>1</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -4489,16 +4496,16 @@
       <c r="H2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="100" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="102"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4528,14 +4535,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="71"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4552,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4571,27 +4578,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="87">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="71"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4624,14 +4631,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="71"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4648,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4667,27 +4674,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="87">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="71"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4720,14 +4727,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="71"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4744,7 +4751,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4794,7 +4801,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4812,18 +4819,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+    </row>
+    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4839,16 +4846,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4867,7 +4874,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="93" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4896,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4915,22 +4922,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="80"/>
+      <c r="J12" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -4944,7 +4951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4963,16 +4970,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="71"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -4989,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5008,23 +5015,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="87">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="80"/>
+      <c r="J14" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5057,16 +5064,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="66" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="71"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5102,20 +5109,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="87">
         <v>7</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
+      <c r="I16" s="80"/>
+      <c r="J16" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="71" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5131,7 +5138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5150,16 +5157,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="72"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5176,7 +5183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -5192,20 +5199,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -5221,17 +5228,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -5250,24 +5257,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="67">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="61"/>
+      <c r="J20" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -5303,16 +5310,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="83"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5326,7 +5333,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -5345,25 +5352,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="67">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="80"/>
+      <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5380,7 +5387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -5399,16 +5406,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="68" t="s">
+      <c r="E23" s="68"/>
+      <c r="F23" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="83"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5420,7 +5427,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -5439,25 +5446,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="67">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="80"/>
+      <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="81" t="s">
+      <c r="I24" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="81" t="s">
+      <c r="J24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82" t="s">
+      <c r="K24" s="61"/>
+      <c r="L24" s="65" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5468,7 +5475,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -5484,16 +5491,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="83"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5508,7 +5515,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -5524,20 +5531,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5556,18 +5563,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5586,27 +5593,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="67">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="81" t="s">
+      <c r="J28" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5618,7 +5625,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5637,14 +5644,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="83"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5660,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5672,26 +5679,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="67">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="81" t="s">
+      <c r="J30" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="81"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5704,7 +5711,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5723,13 +5730,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5739,7 +5746,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5758,26 +5765,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="67">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="81"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5789,7 +5796,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5807,13 +5814,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5828,7 +5835,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5844,20 +5851,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5873,18 +5880,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5900,22 +5907,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="67">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81" t="s">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="81"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -5931,7 +5938,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5947,13 +5954,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5969,7 +5976,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5985,26 +5992,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="67">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="81" t="s">
+      <c r="J38" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="81"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -6018,7 +6025,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6034,13 +6041,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6054,7 +6061,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6070,27 +6077,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="79">
+      <c r="E40" s="67">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="81" t="s">
+      <c r="I40" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="81" t="s">
+      <c r="J40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="81"/>
-      <c r="L40" s="82"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="65"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6100,7 +6107,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6116,14 +6123,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="83"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="66"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6136,7 +6143,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6152,22 +6159,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="79">
+      <c r="E42" s="67">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81" t="s">
+      <c r="I42" s="61"/>
+      <c r="J42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="81"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6183,7 +6190,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6199,13 +6206,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6213,7 +6220,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6229,16 +6236,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="82"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="67"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -6254,179 +6261,271 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E45" s="68">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="83"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="66"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
@@ -6451,107 +6550,15 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6573,24 +6580,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6621,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -6639,17 +6646,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -6668,25 +6675,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="67">
         <v>1</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6705,17 +6712,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6734,26 +6741,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="67">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6772,17 +6779,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6801,30 +6808,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="67">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="81"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6843,19 +6850,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6892,7 +6899,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6920,7 +6927,7 @@
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6936,17 +6943,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6986,7 +6993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -7005,26 +7012,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="67">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7043,17 +7050,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7072,24 +7079,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="67">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7108,19 +7115,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7158,7 +7165,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -7186,7 +7193,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="106"/>
     </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -7202,17 +7209,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
+    </row>
+    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -7249,7 +7256,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -7268,26 +7275,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="67">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -7306,20 +7313,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="103" t="s">
+      <c r="N22" s="116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -7338,25 +7345,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="67">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="103"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="116"/>
+    </row>
+    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -7375,17 +7382,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -7413,7 +7420,7 @@
       <c r="L25" s="105"/>
       <c r="M25" s="106"/>
     </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -7429,17 +7436,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
+    </row>
+    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -7458,26 +7465,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="67">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="81"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -7496,17 +7503,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="67"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -7525,24 +7532,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="67">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="81"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -7561,17 +7568,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="67"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -7590,25 +7597,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="67">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="81"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -7627,17 +7634,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="67"/>
+      <c r="K32" s="62"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -7671,7 +7678,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -7687,19 +7694,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
+    </row>
+    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -7715,17 +7722,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="76"/>
+    </row>
+    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7759,7 +7766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7775,24 +7782,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="67">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81" t="s">
+      <c r="G37" s="61"/>
+      <c r="H37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="81"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="81"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7808,17 +7815,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="67"/>
+      <c r="K38" s="62"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7834,15 +7841,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="67">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="81"/>
-      <c r="H39" s="108"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -7853,7 +7860,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7869,17 +7876,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="109"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7895,24 +7902,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="79">
+      <c r="E41" s="67">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81" t="s">
+      <c r="G41" s="61"/>
+      <c r="H41" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="81"/>
+      <c r="I41" s="61"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="81"/>
+      <c r="K41" s="61"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7928,19 +7935,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="67"/>
+      <c r="K42" s="62"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7956,22 +7963,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="110">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="68"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7987,17 +7994,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="68"/>
+      <c r="K44" s="80"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -8017,167 +8024,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -8194,86 +8281,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8294,22 +8301,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8339,7 +8346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -8357,16 +8364,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -8385,24 +8392,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="110">
         <v>1</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8421,16 +8428,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8449,25 +8456,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="110">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8486,16 +8493,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8514,27 +8521,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="110">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8553,18 +8560,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8600,7 +8607,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -8627,7 +8634,7 @@
       <c r="K10" s="105"/>
       <c r="L10" s="106"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -8643,16 +8650,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -8684,7 +8691,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="61" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8693,7 +8700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -8712,11 +8719,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="67">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="61" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8725,12 +8732,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8749,22 +8756,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="81" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="61" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8783,21 +8790,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="110">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8816,15 +8823,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="81" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="81" t="s">
+      <c r="H16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="61" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -8833,7 +8840,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8859,14 +8866,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -8893,7 +8900,7 @@
       <c r="K18" s="105"/>
       <c r="L18" s="106"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -8909,16 +8916,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+    </row>
+    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -8943,20 +8950,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="61" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -8975,23 +8982,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="110">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -9010,25 +9017,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="81" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="61" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="103" t="s">
+      <c r="M22" s="116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -9047,22 +9054,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="110">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="103"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="116"/>
+    </row>
+    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -9081,8 +9088,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9096,7 +9103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -9123,7 +9130,7 @@
       <c r="K25" s="105"/>
       <c r="L25" s="106"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -9139,16 +9146,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+    </row>
+    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -9167,17 +9174,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="110">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="68"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9185,7 +9192,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -9204,16 +9211,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -9232,23 +9239,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="107">
+      <c r="E29" s="110">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -9267,16 +9274,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -9295,15 +9302,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="110">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9312,7 +9319,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -9331,16 +9338,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -9373,7 +9380,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -9389,18 +9396,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -9416,16 +9423,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -9458,7 +9465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -9474,15 +9481,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="110">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68" t="s">
+      <c r="G37" s="80"/>
+      <c r="H37" s="80" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9490,7 +9497,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -9506,16 +9513,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -9531,15 +9538,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="107">
+      <c r="E39" s="110">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="116"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="117"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9549,7 +9556,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -9565,16 +9572,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="116"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="117"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -9590,15 +9597,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="107">
+      <c r="E41" s="110">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68" t="s">
+      <c r="G41" s="80"/>
+      <c r="H41" s="80" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9606,7 +9613,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -9622,10 +9629,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9633,7 +9640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -9649,13 +9656,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="110">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9663,7 +9670,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -9679,16 +9686,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -9708,182 +9715,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -9900,45 +9930,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B65DAC-43F3-44BA-AEB5-A08DEFF4C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8491890-4BF4-4329-AEE9-D0D2254F85AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="208">
   <si>
     <t>Num</t>
   </si>
@@ -938,6 +938,17 @@
   </si>
   <si>
     <t>PTSI 1 Cours 1</t>
+  </si>
+  <si>
+    <t>TP 5
+Listes 2D
+Chemin autoévitant</t>
+  </si>
+  <si>
+    <t>TP Noté PTSI1</t>
+  </si>
+  <si>
+    <t>TP Noté PTSI2</t>
   </si>
 </sst>
 </file>
@@ -1753,31 +1764,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1786,6 +1851,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1804,128 +1875,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,9 +1956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1985,7 +1996,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2091,7 +2102,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2233,7 +2244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2246,33 +2257,33 @@
   </sheetPr>
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7:H8"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.81640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2336,16 +2347,16 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="60" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
@@ -2362,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2381,17 +2392,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="77">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="95"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -2410,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2429,8 +2440,8 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="62"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2477,21 +2488,21 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="77">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="69" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="89" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -2512,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2531,14 +2542,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -2554,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2576,7 +2587,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="69" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -2596,7 +2607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2622,7 +2633,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -2641,7 +2652,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2659,18 +2670,18 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-    </row>
-    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2686,16 +2697,16 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="68"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2714,7 +2725,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="62" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2736,14 +2747,14 @@
       <c r="O11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="3" t="s">
         <v>203</v>
       </c>
       <c r="Q11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2762,36 +2773,36 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="65">
         <v>5</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="80" t="s">
+      <c r="F12" s="63"/>
+      <c r="G12" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80" t="s">
+      <c r="H12" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="96"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="60" t="s">
+      <c r="P12" s="3" t="s">
         <v>173</v>
       </c>
       <c r="Q12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2810,16 +2821,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="96"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2829,14 +2840,14 @@
       <c r="O13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="3" t="s">
         <v>171</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2855,37 +2866,37 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="65">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="63"/>
+      <c r="G14" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="96"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="P14" s="3" t="s">
         <v>173</v>
       </c>
       <c r="Q14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2904,33 +2915,30 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="60" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>171</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2949,36 +2957,39 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="65">
         <v>7</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="66"/>
+      <c r="L16" s="64" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="60" t="s">
+      <c r="N16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>173</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2997,33 +3008,33 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="37" t="s">
-        <v>112</v>
+      <c r="G17" s="76"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>171</v>
       </c>
       <c r="Q17" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3039,20 +3050,20 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3078,7 +3089,7 @@
       <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3097,32 +3108,32 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="77">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="69"/>
+      <c r="J20" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="2" t="s">
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>95</v>
+      <c r="O20" s="51" t="s">
+        <v>111</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>183</v>
@@ -3131,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3150,17 +3161,17 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="80" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="2" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="51" t="s">
         <v>95</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -3173,7 +3184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3192,25 +3203,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="77">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="61" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="65"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3227,7 +3238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3246,16 +3257,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="80" t="s">
+      <c r="E23" s="78"/>
+      <c r="F23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3267,7 +3278,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3286,25 +3297,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="77">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="65" t="s">
+      <c r="K24" s="69"/>
+      <c r="L24" s="70" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3315,7 +3326,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3331,16 +3342,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="66"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="71"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3355,7 +3366,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3371,20 +3382,20 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3403,18 +3414,18 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3433,27 +3444,27 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="77">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="65"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3465,7 +3476,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3484,14 +3495,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="66"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3500,7 +3511,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3519,26 +3530,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="77">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3551,7 +3562,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3570,13 +3581,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3586,7 +3597,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3605,26 +3616,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="77">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3636,7 +3647,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3654,13 +3665,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3675,7 +3686,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3691,20 +3702,20 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3720,18 +3731,18 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3747,22 +3758,22 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="77">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61" t="s">
+      <c r="G36" s="69"/>
+      <c r="H36" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61" t="s">
+      <c r="I36" s="69"/>
+      <c r="J36" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3778,7 +3789,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3794,13 +3805,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +3827,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3832,26 +3843,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="77">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="J38" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3865,7 +3876,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3881,13 +3892,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3901,7 +3912,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3917,27 +3928,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="77">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="65"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -3947,7 +3958,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3963,14 +3974,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="66"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="71"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -3983,7 +3994,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3999,22 +4010,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="77">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="69"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4030,7 +4041,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4046,13 +4057,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -4060,7 +4071,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4076,16 +4087,16 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="65"/>
-    </row>
-    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="77"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -4101,232 +4112,204 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="68">
+      <c r="E45" s="78">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="66"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
+  <mergeCells count="120">
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
@@ -4349,44 +4332,70 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4408,25 +4417,25 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4484,10 +4493,10 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="102">
         <v>1</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -4496,16 +4505,16 @@
       <c r="H2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="99" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="101"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4535,14 +4544,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="96"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4578,27 +4587,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="65">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="96"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4631,14 +4640,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="96"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4674,27 +4683,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="65">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="96"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4727,14 +4736,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="96"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4801,7 +4810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4819,18 +4828,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-    </row>
-    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4846,16 +4855,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="68"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4874,7 +4883,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="62" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4903,7 +4912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4922,22 +4931,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="65">
         <v>5</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="80" t="s">
+      <c r="F12" s="63"/>
+      <c r="G12" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80" t="s">
+      <c r="I12" s="66"/>
+      <c r="J12" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="96"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4970,16 +4979,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="96"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5015,23 +5024,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="65">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="63"/>
+      <c r="G14" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="96"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5064,16 +5073,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="96"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5109,20 +5118,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="65">
         <v>7</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="66"/>
+      <c r="L16" s="64" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5138,7 +5147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5157,16 +5166,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="97"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -5199,20 +5208,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -5238,7 +5247,7 @@
       <c r="L19" s="86"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -5257,24 +5266,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="77">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="69"/>
+      <c r="J20" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="65"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -5310,16 +5319,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="80" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -5352,25 +5361,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="77">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="61" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="65"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -5406,16 +5415,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="80" t="s">
+      <c r="E23" s="78"/>
+      <c r="F23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5427,7 +5436,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -5446,25 +5455,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="77">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="65" t="s">
+      <c r="K24" s="69"/>
+      <c r="L24" s="70" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5475,7 +5484,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -5491,16 +5500,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="66"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="71"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5515,7 +5524,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -5531,20 +5540,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5563,18 +5572,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5593,27 +5602,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="77">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="65"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5625,7 +5634,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5644,14 +5653,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="66"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5660,7 +5669,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5679,26 +5688,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="77">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5711,7 +5720,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5730,13 +5739,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5746,7 +5755,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5765,26 +5774,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="77">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5796,7 +5805,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5814,13 +5823,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5835,7 +5844,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5851,20 +5860,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5880,18 +5889,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5907,22 +5916,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="77">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61" t="s">
+      <c r="G36" s="69"/>
+      <c r="H36" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61" t="s">
+      <c r="I36" s="69"/>
+      <c r="J36" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -5938,7 +5947,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5954,13 +5963,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5976,7 +5985,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5992,26 +6001,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="77">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="J38" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -6025,7 +6034,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6041,13 +6050,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6061,7 +6070,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6077,27 +6086,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="77">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="65"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6107,7 +6116,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6123,14 +6132,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="66"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="71"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6143,7 +6152,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6159,22 +6168,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="77">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="69"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6190,7 +6199,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6206,13 +6215,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6220,7 +6229,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6236,16 +6245,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="65"/>
-    </row>
-    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="77"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -6261,170 +6270,280 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="68">
+      <c r="E45" s="78">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="66"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="E26:L27"/>
@@ -6449,116 +6568,6 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6580,24 +6589,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -6646,17 +6655,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -6675,25 +6684,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="77">
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6712,17 +6721,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6741,26 +6750,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="77">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6779,17 +6788,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6808,30 +6817,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="77">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="69"/>
+      <c r="J7" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="61"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6850,19 +6859,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6899,7 +6908,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6927,7 +6936,7 @@
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
     </row>
-    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6953,7 +6962,7 @@
       <c r="L11" s="85"/>
       <c r="M11" s="86"/>
     </row>
-    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6993,7 +7002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -7012,26 +7021,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="77">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7050,17 +7059,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7079,24 +7088,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="77">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7115,19 +7124,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7165,7 +7174,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -7193,7 +7202,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="106"/>
     </row>
-    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -7219,7 +7228,7 @@
       <c r="L19" s="85"/>
       <c r="M19" s="86"/>
     </row>
-    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -7256,7 +7265,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -7275,26 +7284,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="77">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -7313,20 +7322,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="116" t="s">
+      <c r="N22" s="103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -7345,25 +7354,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="77">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="116"/>
-    </row>
-    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="103"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -7382,17 +7391,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -7420,7 +7429,7 @@
       <c r="L25" s="105"/>
       <c r="M25" s="106"/>
     </row>
-    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -7446,7 +7455,7 @@
       <c r="L26" s="85"/>
       <c r="M26" s="86"/>
     </row>
-    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -7465,26 +7474,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="77">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="61"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -7503,17 +7512,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="62"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -7532,24 +7541,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="77">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="61"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -7568,17 +7577,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="62"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -7597,25 +7606,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="77">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="61"/>
+      <c r="K31" s="69"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -7634,17 +7643,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="62"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -7678,7 +7687,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -7694,19 +7703,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
-    </row>
-    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -7722,17 +7731,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
-    </row>
-    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7766,7 +7775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7782,24 +7791,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="77">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="61"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="61"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7815,17 +7824,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="62"/>
+      <c r="K38" s="63"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7841,15 +7850,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="77">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="114"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="108"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -7860,7 +7869,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7876,17 +7885,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="115"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="109"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7902,24 +7911,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="77">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61" t="s">
+      <c r="G41" s="69"/>
+      <c r="H41" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="61"/>
+      <c r="K41" s="69"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7935,19 +7944,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="62"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7963,22 +7972,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="107">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="80"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7994,17 +8003,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="80"/>
+      <c r="K44" s="66"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -8024,231 +8033,183 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -8265,22 +8226,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8301,22 +8310,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8346,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -8364,16 +8373,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -8392,24 +8401,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="107">
         <v>1</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8428,16 +8437,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8456,25 +8465,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="107">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8493,16 +8502,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8521,27 +8530,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="107">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8560,18 +8569,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8607,7 +8616,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -8634,7 +8643,7 @@
       <c r="K10" s="105"/>
       <c r="L10" s="106"/>
     </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -8659,7 +8668,7 @@
       <c r="K11" s="85"/>
       <c r="L11" s="86"/>
     </row>
-    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -8691,7 +8700,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="69" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8700,7 +8709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -8719,11 +8728,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="77">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="69" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8732,12 +8741,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8756,22 +8765,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="69" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8790,21 +8799,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="107">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8823,15 +8832,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="61" t="s">
+      <c r="E16" s="94"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="69" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -8840,7 +8849,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8866,14 +8875,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -8900,7 +8909,7 @@
       <c r="K18" s="105"/>
       <c r="L18" s="106"/>
     </row>
-    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -8925,7 +8934,7 @@
       <c r="K19" s="85"/>
       <c r="L19" s="86"/>
     </row>
-    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -8950,20 +8959,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="69" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -8982,23 +8991,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="107">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -9017,25 +9026,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="61" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="69" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="116" t="s">
+      <c r="M22" s="103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -9054,22 +9063,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="107">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="116"/>
-    </row>
-    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -9088,8 +9097,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="80"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9103,7 +9112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -9130,7 +9139,7 @@
       <c r="K25" s="105"/>
       <c r="L25" s="106"/>
     </row>
-    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -9155,7 +9164,7 @@
       <c r="K26" s="85"/>
       <c r="L26" s="86"/>
     </row>
-    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -9174,17 +9183,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="107">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9192,7 +9201,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -9211,16 +9220,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -9239,23 +9248,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="107">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -9274,16 +9283,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -9302,15 +9311,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="107">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9319,7 +9328,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -9338,16 +9347,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -9380,7 +9389,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -9396,18 +9405,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -9423,16 +9432,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -9465,7 +9474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -9481,15 +9490,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="107">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80" t="s">
+      <c r="G37" s="66"/>
+      <c r="H37" s="66" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9497,7 +9506,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -9513,16 +9522,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -9538,15 +9547,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="107">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="80" t="s">
+      <c r="F39" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="117"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="116"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9556,7 +9565,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -9572,16 +9581,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="117"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="116"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -9597,15 +9606,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="107">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="66"/>
+      <c r="H41" s="66" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9613,7 +9622,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -9629,10 +9638,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9640,7 +9649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -9656,13 +9665,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="107">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9670,7 +9679,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -9686,16 +9695,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -9715,166 +9724,221 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -9891,61 +9955,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8491890-4BF4-4329-AEE9-D0D2254F85AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFBEC8C-D070-4B19-9EE4-6DA05B2D7574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -1764,123 +1764,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,50 +1896,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,9 +1956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1996,7 +1996,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2102,7 +2102,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2244,7 +2244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2257,33 +2257,33 @@
   </sheetPr>
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.81640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2347,16 +2347,16 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="94" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2392,17 +2392,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="65">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2440,8 +2440,8 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2488,21 +2488,21 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="65">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="61" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="75" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -2523,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2542,14 +2542,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2587,7 +2587,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="61" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -2607,7 +2607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2633,7 +2633,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="63"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -2652,7 +2652,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2670,18 +2670,18 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2697,16 +2697,16 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2725,7 +2725,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="92" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2773,22 +2773,22 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="86">
         <v>5</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="66" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66" t="s">
+      <c r="I12" s="83"/>
+      <c r="J12" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2821,16 +2821,16 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2866,23 +2866,23 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="86">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="66" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="83" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66" t="s">
+      <c r="I14" s="83"/>
+      <c r="J14" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="64"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2915,16 +2915,16 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="62" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="64"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="37" t="s">
         <v>206</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2957,20 +2957,20 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="86">
         <v>7</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66" t="s">
+      <c r="I16" s="83"/>
+      <c r="J16" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="64" t="s">
+      <c r="K16" s="83"/>
+      <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2989,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3008,16 +3008,16 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="67"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="2" t="s">
         <v>93</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3050,20 +3050,20 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3079,17 +3079,17 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3108,24 +3108,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="65">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69" t="s">
+      <c r="I20" s="61"/>
+      <c r="J20" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="51" t="s">
         <v>95</v>
       </c>
@@ -3136,13 +3136,13 @@
         <v>111</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3161,16 +3161,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="71"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="51" t="s">
         <v>95</v>
       </c>
@@ -3178,13 +3178,13 @@
         <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3203,25 +3203,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="65">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="83"/>
+      <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3257,16 +3257,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="71"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3297,25 +3297,25 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="65">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70" t="s">
+      <c r="K24" s="61"/>
+      <c r="L24" s="63" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3342,16 +3342,16 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="78"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="71"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3382,20 +3382,20 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3414,18 +3414,18 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3444,27 +3444,27 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="77">
+      <c r="E28" s="65">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3495,14 +3495,14 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="71"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3530,26 +3530,26 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E30" s="65">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3581,13 +3581,13 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3616,26 +3616,26 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="65">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="69" t="s">
+      <c r="J32" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3665,13 +3665,13 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3702,20 +3702,20 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3731,18 +3731,18 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="74"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3758,22 +3758,22 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="77">
+      <c r="E36" s="65">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69" t="s">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="69"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3805,13 +3805,13 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3843,26 +3843,26 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="77">
+      <c r="E38" s="65">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="J38" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="69"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3876,7 +3876,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3892,13 +3892,13 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3928,27 +3928,27 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="77">
+      <c r="E40" s="65">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="69" t="s">
+      <c r="I40" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="63"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3974,14 +3974,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="71"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="64"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -4010,22 +4010,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="65">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69" t="s">
+      <c r="I42" s="61"/>
+      <c r="J42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="69"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4057,13 +4057,13 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -4071,7 +4071,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4087,16 +4087,16 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="65"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="63"/>
+    </row>
+    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -4112,170 +4112,266 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="66">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="71"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="64"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="E3:E4"/>
@@ -4300,102 +4396,6 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4417,25 +4417,25 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4493,10 +4493,10 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="103">
         <v>1</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="100" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="98" t="s">
@@ -4505,16 +4505,16 @@
       <c r="H2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="100" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="102"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4544,14 +4544,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="64"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4587,27 +4587,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="86">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="64"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4640,14 +4640,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="64"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4683,27 +4683,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="86">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4736,14 +4736,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="64"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4810,7 +4810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4828,18 +4828,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4855,16 +4855,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4883,7 +4883,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="92" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4912,7 +4912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4931,22 +4931,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="86">
         <v>5</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="66" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66" t="s">
+      <c r="I12" s="83"/>
+      <c r="J12" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4979,16 +4979,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5024,23 +5024,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="86">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="66" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66" t="s">
+      <c r="I14" s="83"/>
+      <c r="J14" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="64"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5073,16 +5073,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="62" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="64"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5118,20 +5118,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="86">
         <v>7</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66" t="s">
+      <c r="I16" s="83"/>
+      <c r="J16" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="64" t="s">
+      <c r="K16" s="83"/>
+      <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5147,7 +5147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5166,16 +5166,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="67"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -5208,20 +5208,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -5237,17 +5237,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -5266,24 +5266,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="65">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69" t="s">
+      <c r="I20" s="61"/>
+      <c r="J20" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -5319,16 +5319,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="71"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -5361,25 +5361,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="65">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="83"/>
+      <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -5415,16 +5415,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="71"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -5455,25 +5455,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="65">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70" t="s">
+      <c r="K24" s="61"/>
+      <c r="L24" s="63" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -5500,16 +5500,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="78"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="71"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -5540,20 +5540,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5572,18 +5572,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5602,27 +5602,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="77">
+      <c r="E28" s="65">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5653,14 +5653,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="71"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5688,26 +5688,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E30" s="65">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5739,13 +5739,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5774,26 +5774,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="65">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="69" t="s">
+      <c r="J32" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5823,13 +5823,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5860,20 +5860,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5889,18 +5889,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="74"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5916,22 +5916,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="77">
+      <c r="E36" s="65">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69" t="s">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="69"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5963,13 +5963,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5985,7 +5985,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6001,26 +6001,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="77">
+      <c r="E38" s="65">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="J38" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="69"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -6034,7 +6034,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6050,13 +6050,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6086,27 +6086,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="77">
+      <c r="E40" s="65">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="69" t="s">
+      <c r="I40" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="63"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6132,14 +6132,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="71"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="64"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6168,22 +6168,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="65">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69" t="s">
+      <c r="I42" s="61"/>
+      <c r="J42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="69"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6215,13 +6215,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6229,7 +6229,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6245,16 +6245,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="65"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="63"/>
+    </row>
+    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -6270,179 +6270,271 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="66">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="71"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="64"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
@@ -6467,107 +6559,15 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6589,24 +6589,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -6655,17 +6655,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -6684,25 +6684,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="65">
         <v>1</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6721,17 +6721,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6750,26 +6750,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="65">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6788,17 +6788,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6817,30 +6817,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="65">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69" t="s">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6859,19 +6859,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6936,7 +6936,7 @@
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6952,17 +6952,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -7002,7 +7002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -7021,26 +7021,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="65">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7059,17 +7059,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7088,24 +7088,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="65">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7124,19 +7124,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7174,7 +7174,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -7202,7 +7202,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="106"/>
     </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -7218,17 +7218,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
+    </row>
+    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -7265,7 +7265,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -7284,26 +7284,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="65">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -7322,20 +7322,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="103" t="s">
+      <c r="N22" s="116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -7354,25 +7354,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="65">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="103"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="116"/>
+    </row>
+    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -7391,17 +7391,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -7429,7 +7429,7 @@
       <c r="L25" s="105"/>
       <c r="M25" s="106"/>
     </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -7445,17 +7445,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="82"/>
+    </row>
+    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -7474,26 +7474,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="65">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="69"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -7512,17 +7512,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="63"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -7541,24 +7541,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="65">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="69"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -7577,17 +7577,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="63"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -7606,25 +7606,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="65">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="69"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -7643,17 +7643,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="63"/>
+      <c r="K32" s="62"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -7703,19 +7703,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
+    </row>
+    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -7731,17 +7731,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="74"/>
+    </row>
+    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7775,7 +7775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7791,24 +7791,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="77">
+      <c r="E37" s="65">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69" t="s">
+      <c r="G37" s="61"/>
+      <c r="H37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="69"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="69"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7824,17 +7824,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="63"/>
+      <c r="K38" s="62"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7850,15 +7850,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="77">
+      <c r="E39" s="65">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="108"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7885,17 +7885,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="109"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7911,24 +7911,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="77">
+      <c r="E41" s="65">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69" t="s">
+      <c r="G41" s="61"/>
+      <c r="H41" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="69"/>
+      <c r="I41" s="61"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="69"/>
+      <c r="K41" s="61"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7944,19 +7944,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="63"/>
+      <c r="K42" s="62"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7972,22 +7972,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="110">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="66"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -8003,17 +8003,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="66"/>
+      <c r="K44" s="83"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -8033,167 +8033,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -8210,86 +8290,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8310,22 +8310,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -8373,16 +8373,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -8401,24 +8401,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="110">
         <v>1</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="66"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8437,16 +8437,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8465,25 +8465,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="110">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8502,16 +8502,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8530,27 +8530,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="110">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8569,18 +8569,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -8643,7 +8643,7 @@
       <c r="K10" s="105"/>
       <c r="L10" s="106"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -8659,16 +8659,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -8700,7 +8700,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="61" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8709,7 +8709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -8728,11 +8728,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="65">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="61" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8741,12 +8741,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8765,22 +8765,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="69" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="61" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8799,21 +8799,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="110">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8832,15 +8832,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="69" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="61" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8875,14 +8875,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -8909,7 +8909,7 @@
       <c r="K18" s="105"/>
       <c r="L18" s="106"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -8925,16 +8925,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
+    </row>
+    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -8959,20 +8959,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="61" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -8991,23 +8991,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="110">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -9026,25 +9026,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="69" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="61" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="103" t="s">
+      <c r="M22" s="116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -9063,22 +9063,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="110">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="103"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="116"/>
+    </row>
+    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -9097,8 +9097,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="66"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -9139,7 +9139,7 @@
       <c r="K25" s="105"/>
       <c r="L25" s="106"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -9155,16 +9155,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
+    </row>
+    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -9183,17 +9183,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="110">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -9220,16 +9220,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -9248,23 +9248,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="107">
+      <c r="E29" s="110">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -9283,16 +9283,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -9311,15 +9311,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="110">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -9347,16 +9347,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -9389,7 +9389,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -9405,18 +9405,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -9432,16 +9432,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="74"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -9474,7 +9474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -9490,15 +9490,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="110">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66" t="s">
+      <c r="G37" s="83"/>
+      <c r="H37" s="83" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9506,7 +9506,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -9522,16 +9522,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -9547,15 +9547,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="107">
+      <c r="E39" s="110">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="116"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="117"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -9581,16 +9581,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="116"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="117"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -9606,15 +9606,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="107">
+      <c r="E41" s="110">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66" t="s">
+      <c r="G41" s="83"/>
+      <c r="H41" s="83" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9622,7 +9622,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -9638,10 +9638,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9649,7 +9649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -9665,13 +9665,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="110">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -9695,16 +9695,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -9724,182 +9724,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -9916,45 +9939,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFBEC8C-D070-4B19-9EE4-6DA05B2D7574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831FEFD5-40E5-46EC-8487-2478E617E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId3"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="222">
   <si>
     <t>Num</t>
   </si>
@@ -949,6 +949,49 @@
   </si>
   <si>
     <t>TP Noté PTSI2</t>
+  </si>
+  <si>
+    <t>PTSI 2 (+1)</t>
+  </si>
+  <si>
+    <t>Vacances Hiver</t>
+  </si>
+  <si>
+    <t>TP 12</t>
+  </si>
+  <si>
+    <t>Vacances de printemps</t>
+  </si>
+  <si>
+    <t>JEUDI 8 MAI</t>
+  </si>
+  <si>
+    <t>ASCENSION</t>
+  </si>
+  <si>
+    <t>PENTECOTE</t>
+  </si>
+  <si>
+    <t>TP NOTE ?</t>
+  </si>
+  <si>
+    <t>TP 15
+1/2 classe</t>
+  </si>
+  <si>
+    <t>TP 15 1/2 Classe</t>
+  </si>
+  <si>
+    <t>TP 16</t>
+  </si>
+  <si>
+    <t>TP 16 1/2 classe</t>
+  </si>
+  <si>
+    <t>FERIE</t>
+  </si>
+  <si>
+    <t>SEMAINES B</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1076,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1125,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1585,7 +1670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1824,6 +1909,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,39 +1949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +2021,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1956,9 +2083,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1996,7 +2123,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2102,7 +2229,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2244,7 +2371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2258,32 +2385,32 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.81640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2347,13 +2474,13 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="89" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="94" t="s">
@@ -2373,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2421,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2469,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2523,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2565,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2607,7 +2734,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2652,7 +2779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2670,18 +2797,18 @@
 au
 27/10/24</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2697,16 +2824,16 @@
 au
 03/11/24</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2725,7 +2852,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="89" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2754,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2773,21 +2900,21 @@
 au
 17/11/24</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="83">
         <v>5</v>
       </c>
       <c r="F12" s="62"/>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83" t="s">
+      <c r="I12" s="82"/>
+      <c r="J12" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="83"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
@@ -2802,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2821,15 +2948,15 @@
 au
 24/11/24</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="92" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
@@ -2847,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2866,22 +2993,22 @@
 au
 01/12/24</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="83">
         <f>E12+1</f>
         <v>6</v>
       </c>
       <c r="F14" s="62"/>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="82" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="83"/>
+      <c r="K14" s="82"/>
       <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
@@ -2896,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2915,15 +3042,15 @@
 au
 08/12/24</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="92" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="83"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
       <c r="L15" s="96"/>
       <c r="M15" s="37" t="s">
         <v>206</v>
@@ -2938,7 +3065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2957,19 +3084,19 @@
 au
 15/12/24</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="83">
         <v>7</v>
       </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="83"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="83"/>
+      <c r="K16" s="82"/>
       <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
@@ -2989,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3008,15 +3135,15 @@
 au
 22/12/24</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="97"/>
       <c r="M17" s="2" t="s">
         <v>93</v>
@@ -3034,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3063,7 +3190,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3079,17 +3206,17 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3114,7 +3241,7 @@
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="82" t="s">
         <v>163</v>
       </c>
       <c r="H20" s="61" t="s">
@@ -3136,13 +3263,13 @@
         <v>111</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3162,10 +3289,10 @@
 19/01/25</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
@@ -3184,7 +3311,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3207,11 +3334,11 @@
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I22" s="61" t="s">
@@ -3232,13 +3359,13 @@
         <v>114</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3258,11 +3385,11 @@
 02/02/25</v>
       </c>
       <c r="E23" s="66"/>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="82" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="62"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
       <c r="K23" s="62"/>
@@ -3276,9 +3403,11 @@
       <c r="P23" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3301,11 +3430,11 @@
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I24" s="61" t="s">
@@ -3318,7 +3447,10 @@
       <c r="L24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="121" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -3326,7 +3458,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3347,15 +3479,12 @@
         <v>27</v>
       </c>
       <c r="G25" s="62"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
       <c r="K25" s="62"/>
       <c r="L25" s="64"/>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="121" t="s">
         <v>117</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -3366,7 +3495,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3382,20 +3511,26 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="122" t="s">
+        <v>119</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3414,18 +3549,23 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3465,18 +3605,12 @@
       </c>
       <c r="K28" s="61"/>
       <c r="L28" s="63"/>
-      <c r="M28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="M28" s="77"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3503,15 +3637,15 @@
       <c r="J29" s="62"/>
       <c r="K29" s="62"/>
       <c r="L29" s="64"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>121</v>
+      <c r="P29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3551,18 +3685,15 @@
       </c>
       <c r="K30" s="61"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3589,15 +3720,15 @@
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>188</v>
+      <c r="P31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3636,18 +3767,19 @@
         <v>191</v>
       </c>
       <c r="K32" s="61"/>
-      <c r="L32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" s="42" t="s">
-        <v>157</v>
+      <c r="L32" s="10"/>
+      <c r="M32" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="125" t="s">
+        <v>210</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>122</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3672,21 +3804,19 @@
       <c r="I33" s="76"/>
       <c r="J33" s="62"/>
       <c r="K33" s="62"/>
-      <c r="L33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>146</v>
+      <c r="L33" s="10"/>
+      <c r="M33" s="125" t="s">
+        <v>210</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="P33" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3712,10 +3842,16 @@
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
       <c r="L34" s="71"/>
+      <c r="M34" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="126" t="s">
+        <v>123</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3739,10 +3875,15 @@
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
       <c r="L35" s="74"/>
+      <c r="M35" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3774,22 +3915,14 @@
         <v>160</v>
       </c>
       <c r="K36" s="61"/>
-      <c r="L36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3813,21 +3946,19 @@
       <c r="J37" s="62"/>
       <c r="K37" s="62"/>
       <c r="L37" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M37" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="N37" s="41">
-        <v>45054</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="P37" s="2"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3865,18 +3996,12 @@
       <c r="K38" s="61"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3899,20 +4024,20 @@
       <c r="I39" s="62"/>
       <c r="J39" s="62"/>
       <c r="K39" s="62"/>
-      <c r="L39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M39" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="P39" s="2"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="N39" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="49"/>
+      <c r="P39" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3949,16 +4074,18 @@
       </c>
       <c r="K40" s="61"/>
       <c r="L40" s="63"/>
-      <c r="M40" s="45" t="s">
+      <c r="M40" s="128" t="s">
         <v>126</v>
       </c>
       <c r="O40" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="P40" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3983,18 +4110,18 @@
       <c r="K41" s="62"/>
       <c r="L41" s="64"/>
       <c r="M41" s="45" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O41" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="O41" s="52"/>
+      <c r="P41" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -4030,18 +4157,14 @@
         <v>91</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="N42" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="O42" s="52" t="s">
-        <v>128</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4065,13 +4188,18 @@
       <c r="J43" s="62"/>
       <c r="K43" s="62"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="N43" s="54"/>
+      <c r="M43" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="N43" s="131" t="s">
+        <v>219</v>
+      </c>
       <c r="O43" s="55"/>
-    </row>
-    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="P43" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4095,8 +4223,11 @@
       <c r="J44" s="61"/>
       <c r="K44" s="61"/>
       <c r="L44" s="63"/>
-    </row>
-    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -4124,158 +4255,160 @@
       <c r="K45" s="62"/>
       <c r="L45" s="64"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="121">
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="M35:O36"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
@@ -4295,9 +4428,15 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E12:E13"/>
@@ -4310,17 +4449,7 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E26:L27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -4340,6 +4469,9 @@
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
@@ -4417,25 +4549,25 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4525,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4544,12 +4676,12 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="99"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="99"/>
-      <c r="J3" s="83"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="99"/>
       <c r="L3" s="96"/>
       <c r="M3" s="2" t="s">
@@ -4568,7 +4700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4587,21 +4719,21 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="83">
         <f>E2+1</f>
         <v>2</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>139</v>
       </c>
       <c r="K4" s="101" t="s">
@@ -4621,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4640,12 +4772,12 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="99"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="101"/>
       <c r="L5" s="96"/>
       <c r="M5" s="2" t="s">
@@ -4664,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4683,26 +4815,26 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="83">
         <f>E4+1</f>
         <v>3</v>
       </c>
       <c r="F6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>174</v>
       </c>
       <c r="I6" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="96"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
@@ -4717,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4736,13 +4868,13 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="99"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="99"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="96"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
@@ -4760,7 +4892,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4810,7 +4942,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4828,18 +4960,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4855,16 +4987,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4883,7 +5015,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="89" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -4912,7 +5044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4931,21 +5063,21 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="83">
         <v>5</v>
       </c>
       <c r="F12" s="62"/>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83" t="s">
+      <c r="I12" s="82"/>
+      <c r="J12" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="83"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="96"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
@@ -4960,7 +5092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4979,15 +5111,15 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="92" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="96"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
@@ -5005,7 +5137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5024,22 +5156,22 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="83">
         <f>E12+1</f>
         <v>6</v>
       </c>
       <c r="F14" s="62"/>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="83"/>
+      <c r="K14" s="82"/>
       <c r="L14" s="96"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
@@ -5054,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5073,15 +5205,15 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="92" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
       <c r="L15" s="96"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
@@ -5099,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5118,19 +5250,19 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="83">
         <v>7</v>
       </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83" t="s">
+      <c r="G16" s="82"/>
+      <c r="H16" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="83"/>
+      <c r="K16" s="82"/>
       <c r="L16" s="96" t="s">
         <v>90</v>
       </c>
@@ -5147,7 +5279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5166,15 +5298,15 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="97"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
@@ -5192,7 +5324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -5221,7 +5353,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -5237,17 +5369,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -5272,7 +5404,7 @@
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="82" t="s">
         <v>163</v>
       </c>
       <c r="H20" s="61" t="s">
@@ -5300,7 +5432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -5320,10 +5452,10 @@
 21/01/24</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
@@ -5342,7 +5474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -5365,11 +5497,11 @@
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I22" s="61" t="s">
@@ -5396,7 +5528,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -5416,11 +5548,11 @@
 04/02/24</v>
       </c>
       <c r="E23" s="66"/>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="82" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="62"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
       <c r="K23" s="62"/>
@@ -5436,7 +5568,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -5459,11 +5591,11 @@
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I24" s="61" t="s">
@@ -5484,7 +5616,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -5505,7 +5637,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="62"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
       <c r="K25" s="62"/>
@@ -5524,7 +5656,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -5553,7 +5685,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5583,7 +5715,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5634,7 +5766,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5669,7 +5801,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5720,7 +5852,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5755,7 +5887,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5805,7 +5937,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5844,7 +5976,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5873,7 +6005,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5900,7 +6032,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5947,7 +6079,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5985,7 +6117,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6034,7 +6166,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6070,7 +6202,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6116,7 +6248,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6152,7 +6284,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6199,7 +6331,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6229,7 +6361,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6254,7 +6386,7 @@
       <c r="K44" s="61"/>
       <c r="L44" s="63"/>
     </row>
-    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -6282,154 +6414,154 @@
       <c r="K45" s="62"/>
       <c r="L45" s="64"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
@@ -6589,24 +6721,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -6665,7 +6797,7 @@
       <c r="L2" s="108"/>
       <c r="M2" s="109"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -6702,7 +6834,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6731,7 +6863,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6769,7 +6901,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6798,7 +6930,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6840,7 +6972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6871,7 +7003,7 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6908,7 +7040,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6936,7 +7068,7 @@
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
     </row>
-    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6952,17 +7084,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-    </row>
-    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -7002,7 +7134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -7040,7 +7172,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7069,7 +7201,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7105,7 +7237,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7136,7 +7268,7 @@
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7174,7 +7306,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -7202,7 +7334,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="106"/>
     </row>
-    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -7218,17 +7350,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-    </row>
-    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -7265,7 +7397,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -7303,7 +7435,7 @@
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -7335,7 +7467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -7372,7 +7504,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="116"/>
     </row>
-    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -7401,7 +7533,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -7429,7 +7561,7 @@
       <c r="L25" s="105"/>
       <c r="M25" s="106"/>
     </row>
-    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -7445,17 +7577,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="82"/>
-    </row>
-    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -7493,7 +7625,7 @@
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -7522,7 +7654,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -7558,7 +7690,7 @@
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -7587,7 +7719,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -7624,7 +7756,7 @@
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -7653,7 +7785,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -7687,7 +7819,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -7715,7 +7847,7 @@
       <c r="L34" s="111"/>
       <c r="M34" s="112"/>
     </row>
-    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -7741,7 +7873,7 @@
       <c r="L35" s="73"/>
       <c r="M35" s="74"/>
     </row>
-    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7775,7 +7907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7808,7 +7940,7 @@
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7834,7 +7966,7 @@
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7869,7 +8001,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7895,7 +8027,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7928,7 +8060,7 @@
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7956,7 +8088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7976,18 +8108,18 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="83"/>
+      <c r="K43" s="82"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -8004,16 +8136,16 @@
 25/06/23</v>
       </c>
       <c r="E44" s="72"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="83"/>
+      <c r="K44" s="82"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -8034,162 +8166,162 @@
         <v>18</v>
       </c>
       <c r="F45" s="113"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
@@ -8310,22 +8442,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -8382,7 +8514,7 @@
       <c r="K2" s="108"/>
       <c r="L2" s="109"/>
     </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -8404,21 +8536,21 @@
       <c r="E3" s="110">
         <v>1</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="83"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8438,15 +8570,15 @@
 18/09/22</v>
       </c>
       <c r="E4" s="72"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8469,21 +8601,21 @@
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="83"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8503,15 +8635,15 @@
 02/10/22</v>
       </c>
       <c r="E6" s="72"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8534,23 +8666,23 @@
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="83"/>
+      <c r="I7" s="82"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8570,17 +8702,17 @@
 16/10/22</v>
       </c>
       <c r="E8" s="72"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8616,7 +8748,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -8643,7 +8775,7 @@
       <c r="K10" s="105"/>
       <c r="L10" s="106"/>
     </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -8659,16 +8791,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-    </row>
-    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -8709,7 +8841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -8746,7 +8878,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8780,7 +8912,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8803,7 +8935,7 @@
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="82" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="62"/>
@@ -8813,7 +8945,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8833,7 +8965,7 @@
 11/12/22</v>
       </c>
       <c r="E16" s="72"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="61" t="s">
         <v>62</v>
       </c>
@@ -8849,7 +8981,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8882,7 +9014,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -8909,7 +9041,7 @@
       <c r="K18" s="105"/>
       <c r="L18" s="106"/>
     </row>
-    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -8925,16 +9057,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
-    </row>
-    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -8972,7 +9104,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -8995,7 +9127,7 @@
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="82" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="62"/>
@@ -9007,7 +9139,7 @@
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -9027,7 +9159,7 @@
 22/01/23</v>
       </c>
       <c r="E22" s="72"/>
-      <c r="F22" s="83"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="61" t="s">
         <v>75</v>
       </c>
@@ -9044,7 +9176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -9067,7 +9199,7 @@
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="82" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="62"/>
@@ -9078,7 +9210,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="116"/>
     </row>
-    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -9098,7 +9230,7 @@
 05/02/23</v>
       </c>
       <c r="E24" s="72"/>
-      <c r="F24" s="83"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9112,7 +9244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -9139,7 +9271,7 @@
       <c r="K25" s="105"/>
       <c r="L25" s="106"/>
     </row>
-    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -9155,16 +9287,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
-    </row>
-    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -9187,13 +9319,13 @@
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="83"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9201,7 +9333,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -9221,15 +9353,15 @@
 05/03/23</v>
       </c>
       <c r="E28" s="72"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -9252,19 +9384,19 @@
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="83"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -9284,15 +9416,15 @@
 19/03/23</v>
       </c>
       <c r="E30" s="72"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -9315,11 +9447,11 @@
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9328,7 +9460,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -9348,15 +9480,15 @@
 02/04/23</v>
       </c>
       <c r="E32" s="72"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -9389,7 +9521,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -9416,7 +9548,7 @@
       <c r="K34" s="111"/>
       <c r="L34" s="112"/>
     </row>
-    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -9441,7 +9573,7 @@
       <c r="K35" s="73"/>
       <c r="L35" s="74"/>
     </row>
-    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -9474,7 +9606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -9494,11 +9626,11 @@
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83" t="s">
+      <c r="G37" s="82"/>
+      <c r="H37" s="82" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9506,7 +9638,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -9523,15 +9655,15 @@
 14/05/23</v>
       </c>
       <c r="E38" s="72"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -9551,10 +9683,10 @@
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="83"/>
+      <c r="G39" s="82"/>
       <c r="H39" s="117"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -9565,7 +9697,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -9582,15 +9714,15 @@
 28/05/23</v>
       </c>
       <c r="E40" s="72"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
       <c r="H40" s="117"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -9610,11 +9742,11 @@
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83" t="s">
+      <c r="G41" s="82"/>
+      <c r="H41" s="82" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9622,7 +9754,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -9639,9 +9771,9 @@
 11/06/23</v>
       </c>
       <c r="E42" s="72"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9649,7 +9781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -9669,9 +9801,9 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9679,7 +9811,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -9696,15 +9828,15 @@
 25/06/23</v>
       </c>
       <c r="E44" s="72"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -9725,161 +9857,161 @@
         <v>18</v>
       </c>
       <c r="F45" s="113"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>

--- a/Progressions/2024_2025_Informatique_PTSI.xlsx
+++ b/Progressions/2024_2025_Informatique_PTSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831FEFD5-40E5-46EC-8487-2478E617E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEFD196-060C-4E0A-89EF-F85DB5C9B73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025_PTSI" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="226">
   <si>
     <t>Num</t>
   </si>
@@ -992,6 +992,21 @@
   </si>
   <si>
     <t>SEMAINES B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 13
+TP 13
+</t>
+  </si>
+  <si>
+    <t>Activité graphes
+TO DO Cavalier</t>
+  </si>
+  <si>
+    <t>Activité images NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTSI 1 </t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,10 +1867,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,6 +1964,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1876,12 +2005,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1894,81 +2017,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,6 +2035,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1990,6 +2047,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1999,70 +2068,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2385,10 +2397,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -2474,16 +2486,16 @@
       <c r="F2" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="78" t="s">
         <v>197</v>
       </c>
       <c r="K2" s="57" t="s">
@@ -2519,17 +2531,17 @@
 au
 15/09/24</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="92">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="95"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
@@ -2567,8 +2579,8 @@
 au
 22/09/24</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="62"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2615,21 +2627,21 @@
 au
 29/09/24</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="92">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="88" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="13"/>
@@ -2669,14 +2681,14 @@
 au
 06/10/24</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
@@ -2714,7 +2726,7 @@
       <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="87" t="s">
         <v>175</v>
       </c>
       <c r="I7" s="13"/>
@@ -2760,7 +2772,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="62"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
         <v>198</v>
@@ -2800,13 +2812,13 @@
       <c r="E9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2825,13 +2837,13 @@
 03/11/24</v>
       </c>
       <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2852,7 +2864,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="80" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2903,19 +2915,19 @@
       <c r="E12" s="83">
         <v>5</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="82" t="s">
+      <c r="F12" s="81"/>
+      <c r="G12" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82" t="s">
+      <c r="I12" s="84"/>
+      <c r="J12" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="96"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2949,15 +2961,15 @@
 24/11/24</v>
       </c>
       <c r="E13" s="83"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="96"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2997,19 +3009,19 @@
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="82" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="84" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82" t="s">
+      <c r="I14" s="84"/>
+      <c r="J14" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="96"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -3043,15 +3055,15 @@
 08/12/24</v>
       </c>
       <c r="E15" s="83"/>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="96"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="37" t="s">
         <v>206</v>
       </c>
@@ -3087,17 +3099,17 @@
       <c r="E16" s="83">
         <v>7</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="82"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82" t="s">
+      <c r="I16" s="84"/>
+      <c r="J16" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="82" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3139,12 +3151,12 @@
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="97"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="2" t="s">
         <v>93</v>
       </c>
@@ -3177,16 +3189,16 @@
 au
 29/12/24</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="96"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -3206,14 +3218,14 @@
 au
 05/01/25</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3235,24 +3247,24 @@
 au
 12/01/25</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="92">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="87"/>
+      <c r="J20" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="51" t="s">
         <v>95</v>
       </c>
@@ -3288,16 +3300,16 @@
 au
 19/01/25</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="82" t="s">
+      <c r="E21" s="93"/>
+      <c r="F21" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="64"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="51" t="s">
         <v>95</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>158</v>
@@ -3330,25 +3342,25 @@
 au
 26/01/25</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="92">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="61" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="63"/>
+      <c r="J22" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="87"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3384,16 +3396,16 @@
 au
 02/02/25</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="82" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="64"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3426,31 +3438,31 @@
 au
 09/02/25</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="92">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63" t="s">
+      <c r="K24" s="87"/>
+      <c r="L24" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="121" t="s">
+      <c r="M24" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="64" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -3474,17 +3486,17 @@
 au
 16/02/25</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="121" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="64" t="s">
         <v>117</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -3511,20 +3523,23 @@
 au
 23/02/25</v>
       </c>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="122" t="s">
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="122" t="s">
+      <c r="N26" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P26" s="2"/>
@@ -3549,19 +3564,19 @@
 au
 02/03/25</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="77" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -3584,30 +3599,30 @@
 au
 09/03/25</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="92">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3629,16 +3644,19 @@
 au
 16/03/25</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="122" t="s">
+      <c r="E29" s="93"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="65" t="s">
         <v>119</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>184</v>
@@ -3664,32 +3682,35 @@
 au
 23/03/25</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="92">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="87"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="124" t="s">
+      <c r="M30" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="N30" s="124" t="s">
+      <c r="N30" s="66" t="s">
         <v>120</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -3712,16 +3733,19 @@
 au
 30/03/25</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="124" t="s">
+      <c r="M31" s="66" t="s">
         <v>120</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>184</v>
@@ -3747,31 +3771,31 @@
 au
 06/04/25</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="92">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="87"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="125" t="s">
+      <c r="M32" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="N32" s="125" t="s">
+      <c r="N32" s="67" t="s">
         <v>210</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -3797,15 +3821,15 @@
 au
 13/04/25</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="125" t="s">
+      <c r="M33" s="67" t="s">
         <v>210</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -3816,7 +3840,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3832,21 +3856,24 @@
 au
 20/04/25</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="126" t="s">
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="N34" s="126" t="s">
+      <c r="N34" s="68" t="s">
         <v>123</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
@@ -3867,19 +3894,19 @@
 au
 27/04/25</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="69" t="s">
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3899,26 +3926,26 @@
 au
 04/05/25</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="92">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61" t="s">
+      <c r="G36" s="87"/>
+      <c r="H36" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61" t="s">
+      <c r="I36" s="87"/>
+      <c r="J36" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
@@ -3938,21 +3965,23 @@
 au
 11/05/25</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="M37" s="127" t="s">
+      <c r="M37" s="69" t="s">
         <v>123</v>
       </c>
       <c r="N37" s="41"/>
-      <c r="O37" s="36"/>
+      <c r="O37" s="36" t="s">
+        <v>126</v>
+      </c>
       <c r="P37" s="2" t="s">
         <v>220</v>
       </c>
@@ -3974,30 +4003,33 @@
 au
 18/05/25</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="92">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="J38" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="O38" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
@@ -4017,18 +4049,18 @@
 au
 25/05/25</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="128" t="s">
+      <c r="M39" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="N39" s="129" t="s">
+      <c r="N39" s="71" t="s">
         <v>126</v>
       </c>
       <c r="O39" s="49"/>
@@ -4053,28 +4085,28 @@
 au
 01/06/25</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="92">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="128" t="s">
+      <c r="J40" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="87"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="70" t="s">
         <v>126</v>
       </c>
       <c r="O40" s="46" t="s">
@@ -4101,14 +4133,14 @@
 au
 08/06/25</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="91"/>
       <c r="M41" s="45" t="s">
         <v>216</v>
       </c>
@@ -4137,22 +4169,22 @@
 au
 15/06/25</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="92">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61" t="s">
+      <c r="G42" s="87"/>
+      <c r="H42" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="87"/>
+      <c r="J42" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -4180,18 +4212,18 @@
 au
 22/06/25</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="130" t="s">
+      <c r="M43" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="N43" s="131" t="s">
+      <c r="N43" s="73" t="s">
         <v>219</v>
       </c>
       <c r="O43" s="55"/>
@@ -4215,14 +4247,14 @@
 au
 29/06/25</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="63"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="90"/>
       <c r="M44" s="2" t="s">
         <v>218</v>
       </c>
@@ -4243,17 +4275,17 @@
 au
 06/07/25</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="93">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="64"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="91"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -4407,6 +4439,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="M27:O28"/>
     <mergeCell ref="M35:O36"/>
     <mergeCell ref="H2:H3"/>
@@ -4431,103 +4560,6 @@
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4625,28 +4657,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="116">
         <v>1</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="115"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -4677,13 +4709,13 @@
 17/09/23</v>
       </c>
       <c r="E3" s="83"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="96"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -4723,23 +4755,23 @@
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="96"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -4773,13 +4805,13 @@
 01/10/23</v>
       </c>
       <c r="E5" s="83"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="96"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4819,23 +4851,23 @@
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="96"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -4869,13 +4901,13 @@
 15/10/23</v>
       </c>
       <c r="E7" s="83"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="96"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -4963,13 +4995,13 @@
       <c r="E9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -4988,13 +5020,13 @@
 05/11/23</v>
       </c>
       <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5015,7 +5047,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="80" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -5066,19 +5098,19 @@
       <c r="E12" s="83">
         <v>5</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="82" t="s">
+      <c r="F12" s="81"/>
+      <c r="G12" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82" t="s">
+      <c r="I12" s="84"/>
+      <c r="J12" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="96"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -5112,15 +5144,15 @@
 26/11/23</v>
       </c>
       <c r="E13" s="83"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="96"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -5160,19 +5192,19 @@
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="82" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82" t="s">
+      <c r="I14" s="84"/>
+      <c r="J14" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="96"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -5206,15 +5238,15 @@
 10/12/23</v>
       </c>
       <c r="E15" s="83"/>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="96"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5253,17 +5285,17 @@
       <c r="E16" s="83">
         <v>7</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82" t="s">
+      <c r="I16" s="84"/>
+      <c r="J16" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="82" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5302,12 +5334,12 @@
       <c r="F17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="97"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -5340,16 +5372,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="96"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -5369,14 +5401,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5398,24 +5430,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="92">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="87"/>
+      <c r="J20" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -5451,16 +5483,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="82" t="s">
+      <c r="E21" s="93"/>
+      <c r="F21" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="64"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5493,25 +5525,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="92">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="61" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="63"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5547,16 +5579,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="82" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="64"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -5587,25 +5619,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="92">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63" t="s">
+      <c r="K24" s="87"/>
+      <c r="L24" s="90" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5632,16 +5664,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="64"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5672,16 +5704,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="96"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -5704,14 +5736,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="96"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -5734,27 +5766,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="92">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -5785,14 +5817,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="91"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -5820,26 +5852,26 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="92">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="87"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -5871,13 +5903,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -5906,26 +5938,26 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="92">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="87"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -5955,13 +5987,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -5992,16 +6024,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="107"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -6021,14 +6053,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -6048,22 +6080,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="92">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61" t="s">
+      <c r="G36" s="87"/>
+      <c r="H36" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61" t="s">
+      <c r="I36" s="87"/>
+      <c r="J36" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -6095,13 +6127,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -6133,26 +6165,26 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="92">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="J38" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -6182,13 +6214,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -6218,27 +6250,27 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="92">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="63"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="90"/>
       <c r="M40" s="45" t="s">
         <v>126</v>
       </c>
@@ -6264,14 +6296,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="91"/>
       <c r="M41" s="45" t="s">
         <v>126</v>
       </c>
@@ -6300,22 +6332,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="92">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61" t="s">
+      <c r="G42" s="87"/>
+      <c r="H42" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="87"/>
+      <c r="J42" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -6347,13 +6379,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="10"/>
       <c r="M43" s="53" t="s">
         <v>128</v>
@@ -6377,14 +6409,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="63"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="90"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -6402,17 +6434,17 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="93">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="64"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="91"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -6566,6 +6598,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="E26:L27"/>
@@ -6590,116 +6732,6 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6787,15 +6819,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -6816,21 +6848,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="92">
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -6853,13 +6885,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -6882,22 +6914,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="92">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -6920,13 +6952,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -6949,24 +6981,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="92">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="61"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -6991,13 +7023,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -7056,17 +7088,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -7084,15 +7116,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="93"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -7153,22 +7185,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="92">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -7191,13 +7223,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -7220,20 +7252,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="92">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -7256,13 +7288,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -7322,17 +7354,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -7350,15 +7382,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -7416,20 +7448,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="92">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -7454,16 +7486,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="116" t="s">
+      <c r="N22" s="117" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7486,23 +7518,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="92">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="116"/>
+      <c r="N23" s="117"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -7523,13 +7555,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -7549,17 +7581,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -7577,15 +7609,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="93"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -7606,20 +7638,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="92">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="61"/>
+      <c r="K27" s="87"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -7644,13 +7676,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="62"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -7673,20 +7705,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="92">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="61"/>
+      <c r="K29" s="87"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -7709,13 +7741,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="62"/>
+      <c r="K30" s="81"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -7738,18 +7770,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="92">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="61"/>
+      <c r="K31" s="87"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -7775,13 +7807,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="62"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -7835,17 +7867,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -7863,15 +7895,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -7923,20 +7955,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="92">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61" t="s">
+      <c r="G37" s="87"/>
+      <c r="H37" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="61"/>
+      <c r="I37" s="87"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="61"/>
+      <c r="K37" s="87"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -7956,13 +7988,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="62"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -7982,15 +8014,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="92">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="114"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -8017,10 +8049,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="115"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="123"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -8043,20 +8075,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="92">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61" t="s">
+      <c r="G41" s="87"/>
+      <c r="H41" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="61"/>
+      <c r="K41" s="87"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -8076,13 +8108,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="62"/>
+      <c r="K42" s="81"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -8104,16 +8136,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="121">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="82"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -8135,13 +8167,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="82"/>
+      <c r="K44" s="84"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -8165,9 +8197,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8326,70 +8358,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -8406,22 +8390,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8505,14 +8537,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -8533,19 +8565,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="121">
         <v>1</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -8569,11 +8601,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -8597,20 +8629,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="121">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="82"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -8634,11 +8666,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -8662,20 +8694,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="121">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="82"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -8701,11 +8733,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -8764,16 +8796,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -8791,14 +8823,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -8832,7 +8864,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="87" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -8860,11 +8892,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="92">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="87" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -8873,7 +8905,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -8897,15 +8929,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="87" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -8931,16 +8963,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="121">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -8964,15 +8996,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="61" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="87" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -9007,9 +9039,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -9030,16 +9062,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -9057,14 +9089,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -9091,13 +9123,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="87" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -9123,16 +9155,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="121">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="F21" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -9158,21 +9190,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="61" t="s">
+      <c r="E22" s="108"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="87" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="116" t="s">
+      <c r="M22" s="117" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9195,20 +9227,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="121">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="116"/>
+      <c r="M23" s="117"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -9229,8 +9261,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -9260,16 +9292,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="106"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -9287,14 +9319,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="93"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -9315,17 +9347,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="121">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="82" t="s">
+      <c r="F27" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="82" t="s">
+      <c r="G27" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="82"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -9352,10 +9384,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -9380,17 +9412,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="121">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="82" t="s">
+      <c r="F29" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="82" t="s">
+      <c r="G29" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -9415,10 +9447,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -9443,15 +9475,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="121">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -9479,10 +9511,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -9537,16 +9569,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -9564,14 +9596,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -9622,15 +9654,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="121">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -9654,10 +9686,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -9679,15 +9711,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="121">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="82"/>
-      <c r="H39" s="117"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="130"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -9713,10 +9745,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="117"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="130"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -9738,15 +9770,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="121">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82" t="s">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -9770,10 +9802,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -9797,13 +9829,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="121">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -9827,10 +9859,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -9856,9 +9888,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -10016,6 +10048,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -10032,61 +10119,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
